--- a/data/trans_camb/P35-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P35-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>17.84778794934916</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>23.02004851671193</v>
+        <v>23.02004851671192</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>8.372741845218384</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.755234473207138</v>
+        <v>-1.576742184453882</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.453061569351949</v>
+        <v>4.576440797913415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.63754815940391</v>
+        <v>11.22430343224073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.628637541667013</v>
+        <v>9.496517290115293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>13.88189130512718</v>
+        <v>13.80797307574226</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.31728026842254</v>
+        <v>18.24282842739754</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.52255758407515</v>
+        <v>5.351599041911557</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.68607398304869</v>
+        <v>10.85898657253889</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.82935498716289</v>
+        <v>16.66265626586681</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.234351440532118</v>
+        <v>7.427020071755353</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.76897638386083</v>
+        <v>13.82288864919274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.48227572759829</v>
+        <v>23.19063104056309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.48107930230788</v>
+        <v>17.87203094077581</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.83619335275121</v>
+        <v>22.10105609084844</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.34657720049928</v>
+        <v>27.58543554205983</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.69209380635959</v>
+        <v>11.37977869583632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.07864050603641</v>
+        <v>16.86533065314217</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.24527652312324</v>
+        <v>24.23579684207391</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.7349577611246947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9479473516179581</v>
+        <v>0.9479473516179578</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3516495574190536</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06992129179681066</v>
+        <v>-0.06237825000596828</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1997433574568581</v>
+        <v>0.1762635432972853</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4409005293228663</v>
+        <v>0.4307231507061355</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3647755193373345</v>
+        <v>0.3559373125166695</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5159206689626202</v>
+        <v>0.5091305818868027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7009835642364302</v>
+        <v>0.690950826070169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2123022921152159</v>
+        <v>0.2131031880499399</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4196817215964553</v>
+        <v>0.4241485309439031</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6491708755361523</v>
+        <v>0.6490917417445219</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3493620919578504</v>
+        <v>0.3689264848952971</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7206070351171863</v>
+        <v>0.6729750104631631</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.132566272222985</v>
+        <v>1.121945791188312</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7800163105755497</v>
+        <v>0.8153345317997102</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9842788908514084</v>
+        <v>0.9985154457466582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.226853564415389</v>
+        <v>1.246887033819401</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5197741910313256</v>
+        <v>0.5111998498329524</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7938137821316879</v>
+        <v>0.7711847460758919</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.096146376407657</v>
+        <v>1.107957150354001</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>14.32363840081348</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.20480390484781</v>
+        <v>26.20480390484782</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.871628451316</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.00664347073715</v>
+        <v>5.65757825835715</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.684585174174387</v>
+        <v>7.782435316667649</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24.55431401885477</v>
+        <v>24.46627635963328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.407237058206292</v>
+        <v>8.274829296516813</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10.2497143309159</v>
+        <v>10.25062299797399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.75799729308433</v>
+        <v>22.82729142003127</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.296688366856277</v>
+        <v>8.254791452388426</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.53454416021303</v>
+        <v>10.43677231253179</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>24.95439661145333</v>
+        <v>24.94180768282803</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.49902519454425</v>
+        <v>12.66767348731455</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.36370231082322</v>
+        <v>15.46836266583714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33.0426031286602</v>
+        <v>33.02285594099196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.05783170623852</v>
+        <v>16.66921352581659</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.992934543164</v>
+        <v>18.09758493986295</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.10346590449697</v>
+        <v>29.74175579363755</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.7856013979901</v>
+        <v>13.39491139972774</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.14125585637338</v>
+        <v>16.32795753173132</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.31482728495195</v>
+        <v>30.16421579447595</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.7077108008294848</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.476397479240329</v>
+        <v>1.47639747924033</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2759690583919766</v>
+        <v>0.3022228940911629</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4231713157046725</v>
+        <v>0.4337618138519158</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.359176939735366</v>
+        <v>1.356490001328281</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.350798057629687</v>
+        <v>0.3670644003496801</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4364341130436064</v>
+        <v>0.4521128552680116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9832080042320367</v>
+        <v>0.9995357865570971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4132467836777597</v>
+        <v>0.4071894985453908</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.542822801941611</v>
+        <v>0.5226325290973484</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.250996897277407</v>
+        <v>1.238756871368573</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8629788954950669</v>
+        <v>0.8540565324973954</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.04088608262374</v>
+        <v>1.027976406035494</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.253921674130856</v>
+        <v>2.24957299482619</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8169215674500736</v>
+        <v>0.8706345234867565</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9331510096396812</v>
+        <v>0.9672191347986845</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.590821897333055</v>
+        <v>1.589901596434414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7757564053480279</v>
+        <v>0.7717007396191653</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9120885935709208</v>
+        <v>0.9439275277438256</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.734199754044376</v>
+        <v>1.735066842852249</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.582952057503092</v>
+        <v>6.74346107653815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.173108705005411</v>
+        <v>4.307358889942615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.86586908013872</v>
+        <v>11.84194132877821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.11529323105351</v>
+        <v>5.114484711903371</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5458834780711871</v>
+        <v>0.6856555096838165</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.893609680734237</v>
+        <v>8.140229794496504</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.263800581002059</v>
+        <v>7.323342428368868</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.773478109519383</v>
+        <v>3.969846036010632</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.03994760908825</v>
+        <v>11.22644748219404</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.34793473245493</v>
+        <v>14.64224906140334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.47356369503596</v>
+        <v>11.76889644563438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.30290150526497</v>
+        <v>19.42323322812386</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.52518392018051</v>
+        <v>13.67913726093942</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.048717535669812</v>
+        <v>9.115171993892272</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.39091230146489</v>
+        <v>15.50525678042073</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.19086213109388</v>
+        <v>13.13057016820081</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.267156018064878</v>
+        <v>9.509994743157122</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.46694142862238</v>
+        <v>16.29254931960272</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2346854768580844</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5618456469073294</v>
+        <v>0.5618456469073291</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5494564231543034</v>
@@ -1197,7 +1197,7 @@
         <v>0.3594576175034553</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7464258457357755</v>
+        <v>0.7464258457357753</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3694163889920722</v>
+        <v>0.3644276891622091</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2517684098961837</v>
+        <v>0.2371616058143702</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6402870040487894</v>
+        <v>0.6586462194605764</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2215407301829627</v>
+        <v>0.2266465194682808</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02608157497498603</v>
+        <v>0.03073678186889099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3441847244041368</v>
+        <v>0.3610282356359053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3639414036059307</v>
+        <v>0.3654298387398597</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1930556397139417</v>
+        <v>0.2015635149541814</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5679020189737791</v>
+        <v>0.5580731727494129</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9625249518197754</v>
+        <v>0.9899722363289248</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7711979800404966</v>
+        <v>0.7882648618141519</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.305563526058939</v>
+        <v>1.325162206631029</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.706686193422815</v>
+        <v>0.6980792213126891</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4730444469213577</v>
+        <v>0.4781423129796553</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8326548827716851</v>
+        <v>0.8383600925150495</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7645824832013446</v>
+        <v>0.7662664794196342</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5428020642296136</v>
+        <v>0.5465513323139196</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9554109340710236</v>
+        <v>0.9437690181631917</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.971187713134579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.104795993096766</v>
+        <v>7.104795993096763</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>16.66033210549641</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.410709302118798</v>
+        <v>3.354853127618073</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7311727292304091</v>
+        <v>0.2406457722566956</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.553718729981195</v>
+        <v>2.751633324333642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.886499212572023</v>
+        <v>10.07350121640314</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.97203149874858</v>
+        <v>4.14350249905141</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.124794396074341</v>
+        <v>1.538829530951373</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.471866174186433</v>
+        <v>8.738971821852525</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.116233565412785</v>
+        <v>4.457215116133882</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.008701721592189</v>
+        <v>3.896392663205043</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.61126989242814</v>
+        <v>14.6243078959595</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.74989998652959</v>
+        <v>10.82289078616837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.38123308756171</v>
+        <v>11.79849914316352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.12082762021772</v>
+        <v>23.58320736907999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.21020862782282</v>
+        <v>16.32777090548686</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.93800960793981</v>
+        <v>12.06950158107944</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.71582828379555</v>
+        <v>17.12960399201007</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.54070929580507</v>
+        <v>12.43240726945138</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.87920421254691</v>
+        <v>10.7071928396023</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3656964135971293</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4351225482829136</v>
+        <v>0.4351225482829135</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.8990150910039966</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.183115504068921</v>
+        <v>0.1651695041108487</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03378615796194499</v>
+        <v>0.01143227806442325</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1251554430032636</v>
+        <v>0.1457457012698165</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4576231413018549</v>
+        <v>0.4297508370970238</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1766611834808491</v>
+        <v>0.1910832968736013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08909395743744172</v>
+        <v>0.06065558397180656</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4183745357692717</v>
+        <v>0.4521998718470209</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2071219931772618</v>
+        <v>0.2394025635015632</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1994023830372374</v>
+        <v>0.1960602960847308</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.03896431255658</v>
+        <v>1.050091410460297</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8497750797834938</v>
+        <v>0.7700352677771652</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8476036445810849</v>
+        <v>0.8694371470224119</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.491057903307171</v>
+        <v>1.559304672759697</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.053818566843332</v>
+        <v>1.100613946339421</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7820081228268918</v>
+        <v>0.8032403428308463</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.072062216165663</v>
+        <v>1.164402549036681</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8069006639402857</v>
+        <v>0.8292115042637509</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.725297205534482</v>
+        <v>0.7073112774898191</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>11.81241851033672</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>16.56131567541283</v>
+        <v>16.56131567541284</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.28343976410178</v>
+        <v>6.1928662853953</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.289042454768056</v>
+        <v>8.223074300183146</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14.67330259542345</v>
+        <v>14.4301751524809</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.31839952525524</v>
+        <v>10.23939102354723</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>10.77767541363674</v>
+        <v>10.9615147618175</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.15065418982029</v>
+        <v>14.20635784738328</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.133108541589468</v>
+        <v>9.095640138798998</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>10.2628625501087</v>
+        <v>10.34837469328034</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>15.00381014076404</v>
+        <v>15.09364453976728</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.44086372559318</v>
+        <v>10.38564994237053</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.43383605067351</v>
+        <v>12.44015835778054</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.79510034641088</v>
+        <v>19.24258983498666</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.85477763184849</v>
+        <v>14.64271123555457</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.55848607568759</v>
+        <v>15.44424674339337</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.20965830904394</v>
+        <v>18.29144275524682</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.97871039375846</v>
+        <v>12.16643265077064</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.30114652750717</v>
+        <v>13.34928266573646</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>18.06600399906249</v>
+        <v>17.97656387760789</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.6013733568309498</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.8431409700346069</v>
+        <v>0.8431409700346071</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3435135731971891</v>
+        <v>0.3302815924329761</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.44715779159439</v>
+        <v>0.4388004668780853</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7983961648416605</v>
+        <v>0.7543511469882483</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4481650293810014</v>
+        <v>0.4466298625064763</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4650424597627566</v>
+        <v>0.4798635056407159</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6253801293419605</v>
+        <v>0.6159322409749522</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4454434777426705</v>
+        <v>0.4430209140359139</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.5014644404806367</v>
+        <v>0.5086091973039656</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7387259521901349</v>
+        <v>0.7437429920621019</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6360689404319787</v>
+        <v>0.6256093709070714</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7538361355046209</v>
+        <v>0.7450454418641196</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.157004285149885</v>
+        <v>1.155273932969047</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7221804544671104</v>
+        <v>0.7181637061732468</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7616548851725106</v>
+        <v>0.7584411215998059</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8853812294141933</v>
+        <v>0.8880140232428536</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6319997527649643</v>
+        <v>0.6414749727309825</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7013414878776887</v>
+        <v>0.707096662380277</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9588737629764928</v>
+        <v>0.9578783972393201</v>
       </c>
     </row>
     <row r="34">
